--- a/public/kpiparceiros.xlsx
+++ b/public/kpiparceiros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Desktop\Projetos BBM\Portal do Parceiro\portal-do-parceiro\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F6DBD4-4E79-404A-91F8-13A7903DEC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2EEEA6-1A79-4AD2-9586-0DD79B8754BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,19 @@
     <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
     <sheet name="Planilha3" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
@@ -1090,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4C9345-DCA0-4A66-806B-CFF54D5CEDB8}">
   <dimension ref="A1:BG23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AU10" sqref="AU10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5143,6 +5152,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
